--- a/webscraping/text.xlsx
+++ b/webscraping/text.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,98 +424,63 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Flower</t>
+          <t>Wayanad</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fresh Flower</t>
+          <t>Wayanad district - Wikipedia</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Flower - Wikipedia</t>
+          <t>Wayanad, wayanad tourism, resorts, hotels,homestays ...</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>300,000+ Flowers Images &amp; Flower Photos [HD] - Pixabay</t>
+          <t>35 Wayanad Tourist Places: 2022 (Updated List With Photos)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lisieux Flowers</t>
+          <t>Wayanad Tourism, India: Places, Best Time &amp; Travel Guides 2022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rosa Flowermart</t>
+          <t>Wayanad -the hill district of Kerala</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rosa Florist and Floral Decors</t>
+          <t>Wayanad - Kerala Tourism</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>flower | Definition, Anatomy, Physiology, &amp; Facts - Encyclopedia ...</t>
+          <t>Wayanad District Tourism (2022): Best of Wayanad ... - TripAdvisor</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fresh Flowers @399 | Online Florist - FNP - Ferns N Petals</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Send Flowers To India | Online Flower Delivery - Bloomsvilla</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Delivering Smiles To Your Loved Ones Across India - FlowerAura.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Online Flower Delivery: Send Flowers India, Order Flowers - IGP.com.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Same Day Flower Delivery Gifts - Interflora India</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Online Flowers Delivery: Send Flowers to India, Order Flowers ...</t>
+          <t>The green paradise | India - വയനാട് wayanad</t>
         </is>
       </c>
     </row>

--- a/webscraping/text.xlsx
+++ b/webscraping/text.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,63 +424,84 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Wayanad</t>
+          <t>Kalikkat Flowers and Decorations</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Wayanad district - Wikipedia</t>
+          <t>Treesa's Flowers</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wayanad, wayanad tourism, resorts, hotels,homestays ...</t>
+          <t>City Flowers</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>35 Wayanad Tourist Places: 2022 (Updated List With Photos)</t>
+          <t>Flower - Wikipedia</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Wayanad Tourism, India: Places, Best Time &amp; Travel Guides 2022</t>
+          <t>300,000+ Flowers Images &amp; Flower Photos [HD] - Pixabay</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Wayanad -the hill district of Kerala</t>
+          <t>Fresh Flowers @399 | Online Florist - FNP - Ferns N Petals</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wayanad - Kerala Tourism</t>
+          <t>flower | Definition, Anatomy, Physiology, &amp; Facts - Encyclopedia ...</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Wayanad District Tourism (2022): Best of Wayanad ... - TripAdvisor</t>
+          <t>Send Flowers To India | Online Flower Delivery - Bloomsvilla</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>The green paradise | India - വയനാട് wayanad</t>
+          <t>Delivering Smiles To Your Loved Ones Across India - Floweraura</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Online Flower Delivery: Send Flowers India, Order Flowers - IGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Online Flowers Delivery in Kochi - MyFlowerTree</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Same Day Flower Delivery Gifts - Interflora India</t>
         </is>
       </c>
     </row>

--- a/webscraping/text.xlsx
+++ b/webscraping/text.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,84 +424,56 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Kalikkat Flowers and Decorations</t>
+          <t>#fffff - YouTube</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Treesa's Flowers</t>
+          <t>What does fffff mean? - Definitions.net</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>City Flowers</t>
+          <t>FFFFF - Home | Facebook</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Flower - Wikipedia</t>
+          <t>FFFFF - Urban Dictionary</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>300,000+ Flowers Images &amp; Flower Photos [HD] - Pixabay</t>
+          <t>[PDF] F F  . F ( ) F F  F  F   . F ( ) ( ") 2/2559 16 2559 F F F F   F  F       F F  ...</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fresh Flowers @399 | Online Florist - FNP - Ferns N Petals</t>
+          <t>wx/pictures.xpm at master · ifwe/wx - GitHub</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>flower | Definition, Anatomy, Physiology, &amp; Facts - Encyclopedia ...</t>
+          <t>#fffff hashtag on Instagram • Photos and Videos</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Send Flowers To India | Online Flower Delivery - Bloomsvilla</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Delivering Smiles To Your Loved Ones Across India - Floweraura</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Online Flower Delivery: Send Flowers India, Order Flowers - IGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Online Flowers Delivery in Kochi - MyFlowerTree</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Same Day Flower Delivery Gifts - Interflora India</t>
+          <t>[PDF] F... FF ( 1)</t>
         </is>
       </c>
     </row>

--- a/webscraping/text.xlsx
+++ b/webscraping/text.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,56 +424,63 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#fffff - YouTube</t>
+          <t>India</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>What does fffff mean? - Definitions.net</t>
+          <t>India - Wikipedia</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FFFFF - Home | Facebook</t>
+          <t>National Portal of India</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FFFFF - Urban Dictionary</t>
+          <t>Government of India, Department of Post</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[PDF] F F  . F ( ) F F  F  F   . F ( ) ( ") 2/2559 16 2559 F F F F   F  F       F F  ...</t>
+          <t>India | History, Map, Population, Economy, &amp; Facts | Britannica</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>wx/pictures.xpm at master · ifwe/wx - GitHub</t>
+          <t>SBI - Loans, Accounts, Cards, Investment, Deposits, Net Banking ...</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#fffff hashtag on Instagram • Photos and Videos</t>
+          <t>Incredible India | English</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[PDF] F... FF ( 1)</t>
+          <t>Reserve Bank of India</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Air India</t>
         </is>
       </c>
     </row>
